--- a/team_specific_matrix/Stetson_B.xlsx
+++ b/team_specific_matrix/Stetson_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2450980392156863</v>
+        <v>0.2520661157024793</v>
       </c>
       <c r="C2">
-        <v>0.4705882352941176</v>
+        <v>0.4586776859504132</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.03431372549019608</v>
+        <v>0.03305785123966942</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1764705882352941</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.07352941176470588</v>
+        <v>0.0743801652892562</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.01030927835051546</v>
+        <v>0.008849557522123894</v>
       </c>
       <c r="C3">
-        <v>0.02061855670103093</v>
+        <v>0.02654867256637168</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.04123711340206185</v>
+        <v>0.03539823008849557</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7938144329896907</v>
+        <v>0.7876106194690266</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.134020618556701</v>
+        <v>0.1415929203539823</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.06060606060606061</v>
+        <v>0.08108108108108109</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.7878787878787878</v>
+        <v>0.7297297297297297</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.1515151515151515</v>
+        <v>0.1891891891891892</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.05421686746987952</v>
+        <v>0.05583756345177665</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01204819277108434</v>
+        <v>0.01015228426395939</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.07228915662650602</v>
+        <v>0.06598984771573604</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2108433734939759</v>
+        <v>0.233502538071066</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01204819277108434</v>
+        <v>0.01522842639593909</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1807228915662651</v>
+        <v>0.1725888324873096</v>
       </c>
       <c r="R6">
-        <v>0.07228915662650602</v>
+        <v>0.08121827411167512</v>
       </c>
       <c r="S6">
-        <v>0.3855421686746988</v>
+        <v>0.3654822335025381</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.07547169811320754</v>
+        <v>0.07017543859649122</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.05660377358490566</v>
+        <v>0.05847953216374269</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.03773584905660377</v>
+        <v>0.04678362573099415</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1257861635220126</v>
+        <v>0.1286549707602339</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.006289308176100629</v>
+        <v>0.005847953216374269</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1635220125786163</v>
+        <v>0.1637426900584795</v>
       </c>
       <c r="R7">
-        <v>0.06918238993710692</v>
+        <v>0.07602339181286549</v>
       </c>
       <c r="S7">
-        <v>0.4654088050314465</v>
+        <v>0.4502923976608187</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.06951871657754011</v>
+        <v>0.06772009029345373</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.0106951871657754</v>
+        <v>0.009029345372460496</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.06684491978609626</v>
+        <v>0.05869074492099323</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1497326203208556</v>
+        <v>0.1422121896162528</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.0160427807486631</v>
+        <v>0.02257336343115124</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1577540106951872</v>
+        <v>0.1625282167042889</v>
       </c>
       <c r="R8">
-        <v>0.106951871657754</v>
+        <v>0.1060948081264108</v>
       </c>
       <c r="S8">
-        <v>0.4224598930481284</v>
+        <v>0.4311512415349887</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.0761904761904762</v>
+        <v>0.0778688524590164</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01428571428571429</v>
+        <v>0.01229508196721311</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.04761904761904762</v>
+        <v>0.04918032786885246</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1</v>
+        <v>0.110655737704918</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01428571428571429</v>
+        <v>0.01229508196721311</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.2238095238095238</v>
+        <v>0.2213114754098361</v>
       </c>
       <c r="R9">
-        <v>0.08571428571428572</v>
+        <v>0.0860655737704918</v>
       </c>
       <c r="S9">
-        <v>0.4380952380952381</v>
+        <v>0.430327868852459</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.09054325955734406</v>
+        <v>0.09052808046940486</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01710261569416499</v>
+        <v>0.01676445934618609</v>
       </c>
       <c r="E10">
-        <v>0.001006036217303823</v>
+        <v>0.0008382229673093043</v>
       </c>
       <c r="F10">
-        <v>0.06539235412474849</v>
+        <v>0.06454316848281642</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1237424547283702</v>
+        <v>0.124056999161777</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01509054325955734</v>
+        <v>0.01508801341156748</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2344064386317908</v>
+        <v>0.2321877619446773</v>
       </c>
       <c r="R10">
-        <v>0.09456740442655935</v>
+        <v>0.09388097233864208</v>
       </c>
       <c r="S10">
-        <v>0.358148893360161</v>
+        <v>0.3621123218776194</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.119047619047619</v>
+        <v>0.1145374449339207</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.0761904761904762</v>
+        <v>0.08370044052863436</v>
       </c>
       <c r="K11">
-        <v>0.1666666666666667</v>
+        <v>0.1674008810572687</v>
       </c>
       <c r="L11">
-        <v>0.6190476190476191</v>
+        <v>0.6167400881057269</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01904761904761905</v>
+        <v>0.01762114537444934</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.8091603053435115</v>
+        <v>0.8014184397163121</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1297709923664122</v>
+        <v>0.1276595744680851</v>
       </c>
       <c r="K12">
-        <v>0.007633587786259542</v>
+        <v>0.007092198581560284</v>
       </c>
       <c r="L12">
-        <v>0.03053435114503817</v>
+        <v>0.02836879432624113</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.02290076335877863</v>
+        <v>0.03546099290780142</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.7948717948717948</v>
+        <v>0.7446808510638298</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1538461538461539</v>
+        <v>0.2127659574468085</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.05128205128205128</v>
+        <v>0.0425531914893617</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.0374331550802139</v>
+        <v>0.03571428571428571</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1978609625668449</v>
+        <v>0.1830357142857143</v>
       </c>
       <c r="I15">
-        <v>0.05882352941176471</v>
+        <v>0.06696428571428571</v>
       </c>
       <c r="J15">
-        <v>0.3796791443850268</v>
+        <v>0.3705357142857143</v>
       </c>
       <c r="K15">
-        <v>0.053475935828877</v>
+        <v>0.04910714285714286</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.0160427807486631</v>
+        <v>0.01339285714285714</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.0481283422459893</v>
+        <v>0.04464285714285714</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2085561497326203</v>
+        <v>0.2366071428571428</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>0.006451612903225806</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1925925925925926</v>
+        <v>0.2129032258064516</v>
       </c>
       <c r="I16">
-        <v>0.07407407407407407</v>
+        <v>0.06451612903225806</v>
       </c>
       <c r="J16">
-        <v>0.4370370370370371</v>
+        <v>0.4064516129032258</v>
       </c>
       <c r="K16">
-        <v>0.1111111111111111</v>
+        <v>0.1096774193548387</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.01481481481481482</v>
+        <v>0.01935483870967742</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.07407407407407407</v>
+        <v>0.06451612903225806</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.0962962962962963</v>
+        <v>0.1161290322580645</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02040816326530612</v>
+        <v>0.01952277657266811</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1530612244897959</v>
+        <v>0.1496746203904555</v>
       </c>
       <c r="I17">
-        <v>0.1224489795918367</v>
+        <v>0.1127982646420824</v>
       </c>
       <c r="J17">
-        <v>0.3979591836734694</v>
+        <v>0.4229934924078091</v>
       </c>
       <c r="K17">
-        <v>0.1122448979591837</v>
+        <v>0.09978308026030369</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01530612244897959</v>
+        <v>0.01301518438177874</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.07142857142857142</v>
+        <v>0.07158351409978309</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1071428571428571</v>
+        <v>0.1106290672451193</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.01136363636363636</v>
+        <v>0.02870813397129187</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1477272727272727</v>
+        <v>0.1626794258373206</v>
       </c>
       <c r="I18">
-        <v>0.1193181818181818</v>
+        <v>0.1100478468899522</v>
       </c>
       <c r="J18">
-        <v>0.4090909090909091</v>
+        <v>0.4019138755980861</v>
       </c>
       <c r="K18">
-        <v>0.1079545454545455</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01136363636363636</v>
+        <v>0.01913875598086124</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.1136363636363636</v>
+        <v>0.1004784688995215</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.07954545454545454</v>
+        <v>0.0861244019138756</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01197604790419162</v>
+        <v>0.01167639699749791</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2265469061876247</v>
+        <v>0.2243536280233528</v>
       </c>
       <c r="I19">
-        <v>0.1207584830339321</v>
+        <v>0.1209341117597998</v>
       </c>
       <c r="J19">
-        <v>0.3383233532934132</v>
+        <v>0.3427856547122602</v>
       </c>
       <c r="K19">
-        <v>0.08582834331337326</v>
+        <v>0.07923269391159299</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02694610778443114</v>
+        <v>0.02668890742285238</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.06786427145708583</v>
+        <v>0.07172643869891576</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1217564870259481</v>
+        <v>0.1226021684737281</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Stetson_B.xlsx
+++ b/team_specific_matrix/Stetson_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2520661157024793</v>
+        <v>0.2480916030534351</v>
       </c>
       <c r="C2">
-        <v>0.4586776859504132</v>
+        <v>0.4580152671755725</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.03305785123966942</v>
+        <v>0.03053435114503817</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1818181818181818</v>
+        <v>0.1870229007633588</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.0743801652892562</v>
+        <v>0.07633587786259542</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.008849557522123894</v>
+        <v>0.00819672131147541</v>
       </c>
       <c r="C3">
-        <v>0.02654867256637168</v>
+        <v>0.02459016393442623</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.03539823008849557</v>
+        <v>0.04098360655737705</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7876106194690266</v>
+        <v>0.7868852459016393</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1415929203539823</v>
+        <v>0.139344262295082</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.08108108108108109</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.7297297297297297</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.1891891891891892</v>
+        <v>0.2142857142857143</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.05583756345177665</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01015228426395939</v>
+        <v>0.008771929824561403</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.06598984771573604</v>
+        <v>0.07017543859649122</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.233502538071066</v>
+        <v>0.2324561403508772</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01522842639593909</v>
+        <v>0.0131578947368421</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1725888324873096</v>
+        <v>0.1710526315789474</v>
       </c>
       <c r="R6">
-        <v>0.08121827411167512</v>
+        <v>0.08771929824561403</v>
       </c>
       <c r="S6">
-        <v>0.3654822335025381</v>
+        <v>0.3640350877192983</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.07017543859649122</v>
+        <v>0.075</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.05847953216374269</v>
+        <v>0.055</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="F7">
-        <v>0.04678362573099415</v>
+        <v>0.06</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1286549707602339</v>
+        <v>0.125</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.005847953216374269</v>
+        <v>0.01</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1637426900584795</v>
+        <v>0.16</v>
       </c>
       <c r="R7">
-        <v>0.07602339181286549</v>
+        <v>0.075</v>
       </c>
       <c r="S7">
-        <v>0.4502923976608187</v>
+        <v>0.435</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.06772009029345373</v>
+        <v>0.06326530612244897</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.009029345372460496</v>
+        <v>0.01224489795918367</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.05869074492099323</v>
+        <v>0.05510204081632653</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1422121896162528</v>
+        <v>0.1408163265306122</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.02257336343115124</v>
+        <v>0.02040816326530612</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1625282167042889</v>
+        <v>0.1714285714285714</v>
       </c>
       <c r="R8">
-        <v>0.1060948081264108</v>
+        <v>0.1061224489795918</v>
       </c>
       <c r="S8">
-        <v>0.4311512415349887</v>
+        <v>0.4306122448979592</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.0778688524590164</v>
+        <v>0.07116104868913857</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01229508196721311</v>
+        <v>0.0149812734082397</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.04918032786885246</v>
+        <v>0.0599250936329588</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.110655737704918</v>
+        <v>0.1086142322097378</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01229508196721311</v>
+        <v>0.01123595505617977</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.2213114754098361</v>
+        <v>0.2134831460674157</v>
       </c>
       <c r="R9">
-        <v>0.0860655737704918</v>
+        <v>0.08239700374531835</v>
       </c>
       <c r="S9">
-        <v>0.430327868852459</v>
+        <v>0.4382022471910113</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.09052808046940486</v>
+        <v>0.09042553191489362</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01676445934618609</v>
+        <v>0.01595744680851064</v>
       </c>
       <c r="E10">
-        <v>0.0008382229673093043</v>
+        <v>0.0007598784194528875</v>
       </c>
       <c r="F10">
-        <v>0.06454316848281642</v>
+        <v>0.06610942249240122</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.124056999161777</v>
+        <v>0.1238601823708207</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01508801341156748</v>
+        <v>0.01595744680851064</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2321877619446773</v>
+        <v>0.2272036474164134</v>
       </c>
       <c r="R10">
-        <v>0.09388097233864208</v>
+        <v>0.0972644376899696</v>
       </c>
       <c r="S10">
-        <v>0.3621123218776194</v>
+        <v>0.3624620060790273</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1145374449339207</v>
+        <v>0.1135531135531136</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.08370044052863436</v>
+        <v>0.08791208791208792</v>
       </c>
       <c r="K11">
-        <v>0.1674008810572687</v>
+        <v>0.1758241758241758</v>
       </c>
       <c r="L11">
-        <v>0.6167400881057269</v>
+        <v>0.608058608058608</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01762114537444934</v>
+        <v>0.01465201465201465</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.8014184397163121</v>
+        <v>0.8011695906432749</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1276595744680851</v>
+        <v>0.1228070175438596</v>
       </c>
       <c r="K12">
-        <v>0.007092198581560284</v>
+        <v>0.01169590643274854</v>
       </c>
       <c r="L12">
-        <v>0.02836879432624113</v>
+        <v>0.03508771929824561</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.03546099290780142</v>
+        <v>0.02923976608187134</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.7446808510638298</v>
+        <v>0.7346938775510204</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2127659574468085</v>
+        <v>0.2244897959183673</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.0425531914893617</v>
+        <v>0.04081632653061224</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.03571428571428571</v>
+        <v>0.0392156862745098</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1830357142857143</v>
+        <v>0.1843137254901961</v>
       </c>
       <c r="I15">
-        <v>0.06696428571428571</v>
+        <v>0.06274509803921569</v>
       </c>
       <c r="J15">
-        <v>0.3705357142857143</v>
+        <v>0.3647058823529412</v>
       </c>
       <c r="K15">
-        <v>0.04910714285714286</v>
+        <v>0.05490196078431372</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01339285714285714</v>
+        <v>0.01176470588235294</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.04464285714285714</v>
+        <v>0.06274509803921569</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2366071428571428</v>
+        <v>0.2196078431372549</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.006451612903225806</v>
+        <v>0.01176470588235294</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.2129032258064516</v>
+        <v>0.2176470588235294</v>
       </c>
       <c r="I16">
-        <v>0.06451612903225806</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="J16">
-        <v>0.4064516129032258</v>
+        <v>0.4176470588235294</v>
       </c>
       <c r="K16">
-        <v>0.1096774193548387</v>
+        <v>0.1058823529411765</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.01935483870967742</v>
+        <v>0.01764705882352941</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.06451612903225806</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1161290322580645</v>
+        <v>0.1117647058823529</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01952277657266811</v>
+        <v>0.01972386587771203</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1496746203904555</v>
+        <v>0.1479289940828402</v>
       </c>
       <c r="I17">
-        <v>0.1127982646420824</v>
+        <v>0.1124260355029586</v>
       </c>
       <c r="J17">
-        <v>0.4229934924078091</v>
+        <v>0.4161735700197239</v>
       </c>
       <c r="K17">
-        <v>0.09978308026030369</v>
+        <v>0.106508875739645</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01301518438177874</v>
+        <v>0.01380670611439842</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.07158351409978309</v>
+        <v>0.07297830374753451</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1106290672451193</v>
+        <v>0.1104536489151874</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.02870813397129187</v>
+        <v>0.02542372881355932</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1626794258373206</v>
+        <v>0.173728813559322</v>
       </c>
       <c r="I18">
-        <v>0.1100478468899522</v>
+        <v>0.1059322033898305</v>
       </c>
       <c r="J18">
-        <v>0.4019138755980861</v>
+        <v>0.3813559322033898</v>
       </c>
       <c r="K18">
-        <v>0.09090909090909091</v>
+        <v>0.09745762711864407</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01913875598086124</v>
+        <v>0.01694915254237288</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.1004784688995215</v>
+        <v>0.1016949152542373</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.0861244019138756</v>
+        <v>0.09745762711864407</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01167639699749791</v>
+        <v>0.01357466063348416</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2243536280233528</v>
+        <v>0.220211161387632</v>
       </c>
       <c r="I19">
-        <v>0.1209341117597998</v>
+        <v>0.1206636500754148</v>
       </c>
       <c r="J19">
-        <v>0.3427856547122602</v>
+        <v>0.3423831070889894</v>
       </c>
       <c r="K19">
-        <v>0.07923269391159299</v>
+        <v>0.08521870286576169</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02668890742285238</v>
+        <v>0.0248868778280543</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.07172643869891576</v>
+        <v>0.07239819004524888</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1226021684737281</v>
+        <v>0.1206636500754148</v>
       </c>
     </row>
   </sheetData>
